--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANSHUMAN SINGH\Downloads\AppFincart-20210907T080953Z-001\AppFincart\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C70E9BC-3774-4A88-9C15-97D175707256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EE3CA8-72A5-4F07-8C4B-91465CCAF95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{B486DD6E-9D6E-4328-9ABF-86CE64B531DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{B486DD6E-9D6E-4328-9ABF-86CE64B531DF}"/>
   </bookViews>
   <sheets>
     <sheet name="joinUs" sheetId="2" r:id="rId1"/>
@@ -19,11 +19,18 @@
     <sheet name="retirementplanning" sheetId="3" r:id="rId4"/>
     <sheet name="OpenAccountTest" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -85,10 +92,10 @@
     <t>pan</t>
   </si>
   <si>
-    <t>TEEPT4368K</t>
-  </si>
-  <si>
-    <t>testweb20sep216@gmail.com</t>
+    <t>testweb16july22@gmail.com</t>
+  </si>
+  <si>
+    <t>TEEPT2091I</t>
   </si>
 </sst>
 </file>
@@ -511,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A979B846-4547-4924-BFFE-0FC5E1D2ADF4}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -539,7 +546,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -563,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE866A54-AC45-43D0-BA73-53C75F121E1C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +586,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/excel/testdata.xlsx
+++ b/src/test/resources/excel/testdata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANSHUMAN SINGH\Downloads\AppFincart-20210907T080953Z-001\AppFincart\src\test\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANSHUMAN SINGH\git\Azure-Selenium-Demo\AppFincart\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EE3CA8-72A5-4F07-8C4B-91465CCAF95D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{035EA95F-86C3-444C-8B56-CBB77A510789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{B486DD6E-9D6E-4328-9ABF-86CE64B531DF}"/>
   </bookViews>
@@ -92,10 +92,10 @@
     <t>pan</t>
   </si>
   <si>
-    <t>testweb16july22@gmail.com</t>
-  </si>
-  <si>
-    <t>TEEPT2091I</t>
+    <t>testweb30july22@gmail.com</t>
+  </si>
+  <si>
+    <t>TEEPT2091J</t>
   </si>
 </sst>
 </file>
